--- a/live_virus_assay.xlsx
+++ b/live_virus_assay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaewoo/50_mount/00_data/20_SARS_CoV_Delta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaewoo/50_mount/00_data/20_SARS_CoV_Delta/30_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B56575-EFA4-2F42-A53A-7F547B751B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7F0540-A33E-3A48-90B0-24FC433DF37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="28800" xr2:uid="{9ABFB881-85DF-3C4B-8C84-7ABDBD54FD3E}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{9ABFB881-85DF-3C4B-8C84-7ABDBD54FD3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -854,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="F18">
-        <v>2.2570449999999999E-2</v>
+        <v>2.2958220000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -868,7 +868,7 @@
         <v>15</v>
       </c>
       <c r="F19">
-        <v>0.32611800000000002</v>
+        <v>0.3307466</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -882,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>8.8285139999999998E-2</v>
+        <v>6.9393700000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -896,7 +896,7 @@
         <v>15</v>
       </c>
       <c r="F21">
-        <v>0.56302640000000004</v>
+        <v>0.57690149999999996</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -910,7 +910,7 @@
         <v>15</v>
       </c>
       <c r="F22">
-        <v>2.375381E-2</v>
+        <v>2.4115020000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -924,7 +924,7 @@
         <v>15</v>
       </c>
       <c r="F23">
-        <v>0.33879150000000002</v>
+        <v>0.34303359999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="F24">
-        <v>8.962444E-2</v>
+        <v>7.1385560000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -952,7 +952,7 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <v>0.54783020000000004</v>
+        <v>0.56146580000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -966,7 +966,7 @@
         <v>15</v>
       </c>
       <c r="F26">
-        <v>1.322662E-2</v>
+        <v>1.3475050000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -980,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="F27">
-        <v>0.20872599999999999</v>
+        <v>0.21222250000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -994,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="F28">
-        <v>6.8902260000000007E-2</v>
+        <v>4.450759E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1008,7 +1008,7 @@
         <v>15</v>
       </c>
       <c r="F29">
-        <v>0.70914520000000003</v>
+        <v>0.72979490000000002</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1022,7 +1022,7 @@
         <v>15</v>
       </c>
       <c r="F30">
-        <v>1.481303E-2</v>
+        <v>1.495052E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1036,7 +1036,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>0.2118805</v>
+        <v>0.21552859999999999</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1050,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="F32">
-        <v>6.8864919999999996E-2</v>
+        <v>4.3749719999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1064,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="F33">
-        <v>0.70444150000000005</v>
+        <v>0.72577119999999995</v>
       </c>
     </row>
   </sheetData>
